--- a/medicine/Premiers secours et secourisme/Échelles_à_main_chez_les_sapeurs-pompiers/Échelles_à_main_chez_les_sapeurs-pompiers.xlsx
+++ b/medicine/Premiers secours et secourisme/Échelles_à_main_chez_les_sapeurs-pompiers/Échelles_à_main_chez_les_sapeurs-pompiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les échelles sont des agrès de sauvetage, de reconnaissance et d'établissement de tuyaux utilisées lorsque les communications sont impraticables. Il existe 3 catégories d'échelles utilisées chez les sapeurs-pompiers :
 Les échelles à crochets
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,12 @@
           <t>Matériau utilisé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pour toutes les échelles utilisées de nos jours, le matériau utilisé est le même : l’alliage d'aluminium. 
-Avantages
-Légèreté et maniabilité
-Facilité d'entretien
-Inconvénients
-Conducteur de chaleur et d'électricité
-Glissant quand il est humide</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour toutes les échelles utilisées de nos jours, le matériau utilisé est le même : l’alliage d'aluminium. 
+</t>
         </is>
       </c>
     </row>
@@ -532,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,68 +556,369 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Matériau utilisé</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avantages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Légèreté et maniabilité
+Facilité d'entretien</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Matériau utilisé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Inconvénients</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Conducteur de chaleur et d'électricité
+Glissant quand il est humide</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Échelles à crochets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Seulement utilisées comme agrès de reconnaissance et de sauvetage, les échelles à crochets sont utilisées pour monter d'étage en étage par l'extérieur des habitations. Elles peuvent être utilisées en prolongement d'une échelle à coulisse ou aérienne, en échelle de toit ou pour accéder aux toits terrasses.
-Composition
-2 montants
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Échelles à crochets</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 montants
 13 à 14 échelons
 2 crochets
 2 pointes
 1 à 2 entretoises
 2 écarteurs de façades
-2 sabots antidérapants
-Conditions d'utilisations
-Position d'utilisation
-Elles s'utilisent toujours en suspension par les crochets ou les pointes à la verticale, les sabots antidérapants ne doivent pas toucher le sol sinon la résistance est nulle comme à l'horizontale. Lorsque cette position est respectée, la charge maximale est celle d'une personne. 
-Position de repos
-La position de repos d'une échelle à crochets est l'horizontale posée sur les pointes. Il ne faut rien poser dessus comme pour les autres types d'échelles.
+2 sabots antidérapants</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Échelles à crochets</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conditions d'utilisations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Position d'utilisation</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles s'utilisent toujours en suspension par les crochets ou les pointes à la verticale, les sabots antidérapants ne doivent pas toucher le sol sinon la résistance est nulle comme à l'horizontale. Lorsque cette position est respectée, la charge maximale est celle d'une personne. 
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Échelles à crochets</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Conditions d'utilisations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Position de repos</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La position de repos d'une échelle à crochets est l'horizontale posée sur les pointes. Il ne faut rien poser dessus comme pour les autres types d'échelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Échelles à coulisses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des agrès de reconnaissance, de sauvetage et d'établissement de tuyaux. En fonction du nombre de plans, elles permettent d'accéder à différentes hauteurs.
-Les échelles à coulisses à 2 plans
-Elles permettent d'accéder au premier et deuxième étages des bâtiments ainsi qu'aux toitures de la même hauteur.
-Composition
-2 plans, dont l'un est plus étroit que l'autre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Échelles à coulisses</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les échelles à coulisses à 2 plans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles permettent d'accéder au premier et deuxième étages des bâtiments ainsi qu'aux toitures de la même hauteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Échelles à coulisses</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les échelles à coulisses à 2 plans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 plans, dont l'un est plus étroit que l'autre.
 15 à 19 échelons par plan
 1 cordelette permettant de monter le deuxième plan
 1 poulie
 2 parachutes pour bloquer le deuxième plan en position haute
 4 sabots antidérapants par plan
-2 roulettes en option
-Conditions d'utilisation
-Position d'utilisation
+2 roulettes en option</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Échelles à coulisses</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les échelles à coulisses à 2 plans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Conditions d'utilisation</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Position d'utilisation
 Lors de sa mise en place, à une ou à deux personnes, il faut faire attention à ce que le petit plan soit placé contre la façade, que le pied d'échelle soit bien positionné, que la cordelette soit bien amarrée et, si le deuxième plan est monté, que les parachutes soient bien bloqués. Elle peut aussi être utilisée à l'horizontale si elle est repliée.
 Position d'attente
 L'échelle à coulisse est posée sur le petit plan lorsqu'elle est au repos.
@@ -616,25 +926,135 @@
 Lorsqu'elle est à la verticale et repliée, elle peut supporter deux 2 personnes
 Une personne par plan déployé à la verticale, sauf en cas de sauvetage.
 Quand elle est employée à l'horizontale et repliée, deux personnes peuvent monter dessus.
-La résistance est nulle dans le cas où elle est manipulée à l'horizontale et déployée.
-Les échelles à coulisses à 3 plans
-Composition
-3 plans : un petit plan, un plan intermédiaire et un grand plan
+La résistance est nulle dans le cas où elle est manipulée à l'horizontale et déployée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Échelles à coulisses</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les échelles à coulisses à 3 plans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3 plans : un petit plan, un plan intermédiaire et un grand plan
 21 échelons par plan
 2 arcs boutants servant à réduire le creux de l'échelle
 2 cordelette : une pour monter le plan intermédiaire, l'autre pour élever le petit plan
 2 poulies, une pour chaque cordelette
 2 parachutes, un sur le grand plan, l'autre sur le plan intermédiaire
-4 sabots antidérapants par plan
-Conditions d'utilisations
-Position d'utilisation
+4 sabots antidérapants par plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Échelles à coulisses</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les échelles à coulisses à 3 plans</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Conditions d'utilisations</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Position d'utilisation
 Elle doit être manœuvrée par une équipe de cinq sapeurs-pompiers. Il faut faire attention à respecter le pied d'échelle, à reposer le petit plan contre la façade et à bien positionner les arcs boutants.
 Position d'attente
 Sa position d'attente est posée sur le grand plan avec les arcs boutants sortis au minimum et fixés au grand plan.
 Résistance
 Elle n'est pas utilisée à l'horizontale. Sa résistance à la verticale déployée est de une personne par plan ou de deux personnes sur le dernier plan. Si elle est repliée, sa résistance est la même que l'échelle à coulisses à 2 plans.
-Le pied d'échelle
-Le pied d'échelle correspond à la longueur entre l'aplomb du point d'appui et la base de l'échelle. Pour monter ou descendre en toute sécurité, il est impératif de bien calculer et respecter cette distance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Échelles_à_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelles_%C3%A0_main_chez_les_sapeurs-pompiers</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Échelles à coulisses</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Le pied d'échelle</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pied d'échelle correspond à la longueur entre l'aplomb du point d'appui et la base de l'échelle. Pour monter ou descendre en toute sécurité, il est impératif de bien calculer et respecter cette distance.
 Si le pied d'échelle est trop petit, l'échelle basculera en arrière quand on la montera. À l'inverse, si le pied d'échelle est trop grand, l'échelle glissera le long du mur et chutera au sol.
 Il se mesure avec le formule suivante :
         P
